--- a/data/trans_orig/Q25_A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D46A9ADD-D6AE-43D1-B94C-309C755D3B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1400C072-7803-4604-9CFF-862E2AA23612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5FD97B1-1709-4BB1-8F2F-9F1CD1F06956}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7DED31E1-76E5-431D-AD4D-D7B1CF21582E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -3000,7 +3000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3BF40B-FF13-4D05-8E39-047E63F0BA50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB06B4FB-F97B-4A3E-A69C-22276159F841}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4933,7 +4933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76CB7E3-C92A-4860-81C0-5D41F51FC339}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC68C790-A3E0-4AE3-975A-92D8A7DD1751}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6866,7 +6866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EAD37D-36D5-4D2E-A770-592BE6F36E3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C0BE39-9385-450A-BC36-4E58D2B0267B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8799,7 +8799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A8058D-6C5D-4049-BFCF-EC0D1884780C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE076999-50DF-440B-9A45-00B5FE9077BD}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/Q25_A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en función del tiempo en años desde que dejó de fumar</t>
+          <t>Tiempo medio en años desde que dejó de fumar</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,41</t>
+          <t>1,2; 3,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,63</t>
+          <t>0,96; 2,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,85</t>
+          <t>0,67; 1,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,66</t>
+          <t>0,17; 2,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,15</t>
+          <t>0,82; 2,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,67</t>
+          <t>1,14; 2,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,1</t>
+          <t>1,43; 3,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,75</t>
+          <t>1,24; 3,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,38</t>
+          <t>1,08; 2,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,33</t>
+          <t>1,19; 2,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,48</t>
+          <t>1,29; 2,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,17</t>
+          <t>0,95; 3,05</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,96</t>
+          <t>3,16; 6,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 3,68</t>
+          <t>2,22; 3,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 4,87</t>
+          <t>3,24; 4,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,09</t>
+          <t>2,32; 6,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 4,16</t>
+          <t>2,77; 4,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,23</t>
+          <t>3,24; 5,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 4,77</t>
+          <t>2,9; 4,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 7,03</t>
+          <t>3,51; 7,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 4,43</t>
+          <t>3,12; 4,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 4,08</t>
+          <t>2,93; 4,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 4,48</t>
+          <t>3,19; 4,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 6,06</t>
+          <t>3,44; 6,08</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 6,87</t>
+          <t>4,89; 6,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 6,95</t>
+          <t>4,83; 6,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 6,66</t>
+          <t>4,6; 6,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,95; 9,47</t>
+          <t>5,7; 9,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,69; 9,38</t>
+          <t>6,7; 9,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,64; 8,83</t>
+          <t>6,63; 8,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 8,3</t>
+          <t>5,9; 8,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 10,19</t>
+          <t>6,73; 10,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,73</t>
+          <t>5,94; 7,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,03; 7,66</t>
+          <t>6,05; 7,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 7,22</t>
+          <t>5,54; 7,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,75; 9,29</t>
+          <t>6,82; 9,23</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 8,6</t>
+          <t>6,17; 8,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,28; 11,18</t>
+          <t>8,27; 11,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,59; 11,36</t>
+          <t>8,71; 11,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 11,64</t>
+          <t>2,59; 11,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,82</t>
+          <t>6,21; 9,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,32; 11,85</t>
+          <t>8,22; 11,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,94</t>
+          <t>8,82; 11,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,19; 14,5</t>
+          <t>11,25; 14,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,6; 8,46</t>
+          <t>6,49; 8,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,59; 10,88</t>
+          <t>8,63; 10,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,13; 11,19</t>
+          <t>9,12; 11,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 12,22</t>
+          <t>3,18; 12,19</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,28; 13,18</t>
+          <t>10,22; 13,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,61; 13,91</t>
+          <t>10,72; 13,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,66; 15,03</t>
+          <t>11,64; 14,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,73; 16,94</t>
+          <t>13,69; 16,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,25; 15,94</t>
+          <t>7,34; 15,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,65; 11,81</t>
+          <t>7,76; 11,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,75; 13,21</t>
+          <t>8,64; 13,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,75; 16,27</t>
+          <t>12,61; 16,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,21; 12,84</t>
+          <t>10,18; 12,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,21; 13,06</t>
+          <t>10,12; 12,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,08; 13,93</t>
+          <t>11,22; 13,9</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,85; 16,25</t>
+          <t>13,9; 16,38</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,06; 15,74</t>
+          <t>12,14; 15,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,01; 17,72</t>
+          <t>13,99; 17,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,24; 17,81</t>
+          <t>14,2; 17,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,05; 20,12</t>
+          <t>16,92; 20,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,39; 13,01</t>
+          <t>5,32; 12,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,82; 22,54</t>
+          <t>4,97; 22,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,67; 22,15</t>
+          <t>11,77; 22,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,69; 24,81</t>
+          <t>16,82; 25,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,8; 15,14</t>
+          <t>11,8; 15,31</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,6; 17,25</t>
+          <t>13,59; 17,14</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,21; 17,74</t>
+          <t>14,37; 17,89</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,53; 20,53</t>
+          <t>17,37; 20,51</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,08; 19,63</t>
+          <t>16,13; 19,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,52; 24,19</t>
+          <t>19,4; 24,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,98; 23,13</t>
+          <t>19,06; 23,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,04; 28,06</t>
+          <t>23,88; 27,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,36; 27,66</t>
+          <t>9,88; 27,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,17; 32,12</t>
+          <t>8,65; 31,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,27 +1599,27 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,92; 32,03</t>
+          <t>21,19; 32,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,03; 19,59</t>
+          <t>16,07; 19,78</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,22; 24,15</t>
+          <t>19,34; 23,99</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>19,31; 24,16</t>
+          <t>19,51; 24,06</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>24,21; 27,72</t>
+          <t>24,13; 27,85</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,16; 11,58</t>
+          <t>10,08; 11,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,25; 12,95</t>
+          <t>11,28; 12,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,88; 13,51</t>
+          <t>11,84; 13,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,02; 16,68</t>
+          <t>6,88; 16,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,98; 7,72</t>
+          <t>5,94; 7,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,84; 8,46</t>
+          <t>6,87; 8,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,96; 9,87</t>
+          <t>7,99; 9,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,79; 13,99</t>
+          <t>11,76; 14,09</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,11; 10,29</t>
+          <t>9,07; 10,24</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10,03; 11,31</t>
+          <t>10,08; 11,29</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10,7; 12,01</t>
+          <t>10,7; 12,03</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,48; 15,36</t>
+          <t>7,35; 15,41</t>
         </is>
       </c>
     </row>
